--- a/Agora Team Activity Log .xlsx
+++ b/Agora Team Activity Log .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\practice html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\301\agora_student_marketplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B07397F9-C5C6-41CB-88C6-A5169CE9880C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0942C9E0-6ABE-4206-B83A-282F5A437A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
     <t>Created Hi-FI prototypes for Home and View Listing screens. Found suitable tutorial videos for the group to watch to learn React and assist with project development. Start development of the Home screen and set up appropriate project directory structure.</t>
   </si>
   <si>
-    <t xml:space="preserve">Create mockup prototype for Purchase confirmation, checkout, About us and contact us.  </t>
+    <t xml:space="preserve">Create mockup prototype for Purchase confirmation, checkout, credit card, About us and contact us. Created login sequence  diagram, use case diagram and updated activity diagram.  </t>
   </si>
 </sst>
 </file>

--- a/Agora Team Activity Log .xlsx
+++ b/Agora Team Activity Log .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\301\agora_student_marketplace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zedri\source\repos\agora_student_marketplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0942C9E0-6ABE-4206-B83A-282F5A437A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F46D97-4AD6-4006-9762-FE1FCB99530B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Hugo Baird</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t xml:space="preserve">Create mockup prototype for Purchase confirmation, checkout, credit card, About us and contact us. Created login sequence  diagram, use case diagram and updated activity diagram.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created lo-fi and hi-fi prototypes for various pages (Login, Home, Register, List Product, Buy product). Carrying on with tutorial watching for the new development tools. Have started on a heuristics document for user experience in the context of our project. </t>
   </si>
 </sst>
 </file>
@@ -480,20 +483,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="6" width="36.7109375" customWidth="1"/>
-    <col min="7" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="6" width="36.6640625" customWidth="1"/>
+    <col min="7" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +514,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -531,7 +534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -551,7 +554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -571,7 +574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -580,12 +583,14 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -595,7 +600,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -605,7 +610,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -615,7 +620,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -625,7 +630,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -635,7 +640,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -645,7 +650,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -655,7 +660,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -665,7 +670,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>

--- a/Agora Team Activity Log .xlsx
+++ b/Agora Team Activity Log .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zedri\source\repos\agora_student_marketplace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cedricstephani/Documents/INFO301/agora_student_marketplace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F46D97-4AD6-4006-9762-FE1FCB99530B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F12B53-346B-E544-BB12-C974B30927B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Hugo Baird</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t xml:space="preserve">Created lo-fi and hi-fi prototypes for various pages (Login, Home, Register, List Product, Buy product). Carrying on with tutorial watching for the new development tools. Have started on a heuristics document for user experience in the context of our project. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated the ERD, Created a MongoDB cluster/database which everyone has been added to, alongside found tutorials for how to get it working on various OS's. Worked on the evidence review. And have also made low-fi and hi-fi prototypes for the computer and mobile webpages, and a sequence diagram. </t>
   </si>
 </sst>
 </file>
@@ -483,20 +486,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" customWidth="1"/>
     <col min="4" max="6" width="36.6640625" customWidth="1"/>
-    <col min="7" max="1025" width="14.44140625" customWidth="1"/>
+    <col min="7" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +517,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -534,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -554,7 +557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -574,14 +577,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
         <v>28</v>
@@ -590,7 +595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -600,7 +605,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -610,7 +615,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -620,7 +625,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -630,7 +635,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -640,7 +645,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -650,7 +655,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -660,7 +665,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -670,7 +675,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
